--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.097</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.141</v>
+        <v>14.934</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.301</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.919</v>
+        <v>17.708</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.098</v>
+        <v>0.9350000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.941</v>
+        <v>6.578</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.069187984738239</v>
+        <v>13.51316041641994</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.98324493326445</v>
+        <v>16.69760117414257</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.49018376221095</v>
+        <v>25.81218134800679</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.925573612642037</v>
+        <v>1.072505073991952</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.29516740520027</v>
+        <v>19.36202115294951</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.72552580589315</v>
+        <v>22.5718488101245</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15.20255828104238</v>
+        <v>5.020940533384845</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.91248258585927</v>
+        <v>30.7026915698355</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37.04675106166869</v>
+        <v>33.73164877282919</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.67568390475179</v>
+        <v>18.15278633920873</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>39.32290315410164</v>
+        <v>25.24539594154513</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.3826641909975</v>
+        <v>24.72624717589962</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.37574603729157</v>
+        <v>11.22387601818988</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.33204108968971</v>
+        <v>15.19981042845187</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>41.33333667822765</v>
+        <v>27.88572870422371</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.50538564505186</v>
+        <v>13.38749604097932</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.52123700018127</v>
+        <v>21.84152337207865</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.91866391309817</v>
+        <v>28.07394581823016</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.758305501754737</v>
+        <v>2.051001310998775</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.00431011368855</v>
+        <v>10.37190315177202</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.35952248393748</v>
+        <v>15.66998788992218</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.05657804407922</v>
+        <v>-1.144999298899528</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.80981459849942</v>
+        <v>19.80505818886193</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.43400655341884</v>
+        <v>15.58047844644511</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.42361722985843</v>
+        <v>25.41524868312936</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.92862649967862</v>
+        <v>30.61765252276878</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.390176229416731</v>
+        <v>3.07544741181022</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.85264090314178</v>
+        <v>34.05914797010932</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.28080571100739</v>
+        <v>35.05110420053779</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16.78525496687454</v>
+        <v>7.586109991554796</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>33.58107336317879</v>
+        <v>46.52481078370747</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.71430195748324</v>
+        <v>46.90800168768197</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>34.24607490970958</v>
+        <v>45.57836889609841</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>40.90900106635164</v>
+        <v>52.12253447983558</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.97749547913455</v>
+        <v>51.29501499528595</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>15.82046496933049</v>
+        <v>22.43601240530961</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.90425969284179</v>
+        <v>43.55009752731828</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.89329826501083</v>
+        <v>50.36219654786926</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>11.86543631826938</v>
+        <v>17.21363577027806</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.95703671983427</v>
+        <v>32.86129392522299</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>30.35345811940241</v>
+        <v>37.16812388046826</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8.216456166065349</v>
+        <v>6.43195006234178</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.55563207774596</v>
+        <v>30.53091225556002</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.90931341069093</v>
+        <v>35.84341008441098</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>17.63180902628234</v>
+        <v>6.055556700316945</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>34.47101070497905</v>
+        <v>44.5068723482093</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10.60030599927954</v>
+        <v>10.70679105395882</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.59594477745124</v>
+        <v>22.64556263603247</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.10354945098945</v>
+        <v>29.17442064891194</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7.591586143245227</v>
+        <v>2.478964486159658</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>24.06028816364763</v>
+        <v>32.80728950784571</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.49370037374079</v>
+        <v>37.08085496314506</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16.9954097160494</v>
+        <v>7.864456198986101</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.79694254666331</v>
+        <v>47.58681879514903</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>38.93282310796051</v>
+        <v>50.55168525423514</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.44610025997175</v>
+        <v>48.16012457789133</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41.10514003667279</v>
+        <v>53.17575283218851</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>45.17938355111313</v>
+        <v>56.22822666646312</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>16.0002992197582</v>
+        <v>14.8495202105558</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.10127380560252</v>
+        <v>38.69867623074947</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>43.09296367660315</v>
+        <v>48.17830885900966</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>12.03087262346227</v>
+        <v>12.62363489611449</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.12806968113147</v>
+        <v>29.17597994285692</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>30.52760032978637</v>
+        <v>35.84076175612979</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8.41548053964372</v>
+        <v>4.903020292841983</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.76059314334324</v>
+        <v>27.71130503957729</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.1200233069764</v>
+        <v>37.79484615640151</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>17.83958476670653</v>
+        <v>6.204673203862118</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.6840414183679</v>
+        <v>44.33255539743573</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>9.797476228128186</v>
+        <v>5.247412332647322</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.77080623867472</v>
+        <v>15.7358989838296</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.29131234916841</v>
+        <v>26.24097708046258</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.730914645417311</v>
+        <v>2.015781199606451</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>23.17025472753192</v>
+        <v>28.66546539832861</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.61844263618462</v>
+        <v>37.17012115246739</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16.07462639955924</v>
+        <v>3.515973613122682</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.85221683316021</v>
+        <v>40.8126672628084</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.00159636930455</v>
+        <v>47.52751503306467</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.56189880755287</v>
+        <v>37.68951724886718</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.22147718726133</v>
+        <v>42.87914808392965</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>44.30050101591488</v>
+        <v>47.0444137481107</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>15.16038875943563</v>
+        <v>9.377645316614107</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35.21891508801655</v>
+        <v>28.12029536887597</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>42.23643921188645</v>
+        <v>44.98642513379338</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>11.23192614939951</v>
+        <v>9.251873529309655</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.30670053553553</v>
+        <v>25.35283411932539</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.71835284821034</v>
+        <v>34.68020322312733</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7.557793016410589</v>
+        <v>5.557792672203202</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.87303722747119</v>
+        <v>24.533188031974</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.24660304319928</v>
+        <v>36.95334708580316</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16.9224237842758</v>
+        <v>3.338378654105639</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.7428023428503</v>
+        <v>37.23742795722627</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.88090024888231</v>
+        <v>28.36837992906542</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>33.05812477986186</v>
+        <v>17.99461534956458</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>39.78502631211745</v>
+        <v>29.15754478702916</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>44.0481857226919</v>
+        <v>32.40078361374945</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.30119921609769</v>
+        <v>3.695257725461925</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>35.70262604687711</v>
+        <v>17.15027789734409</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>42.27471804831145</v>
+        <v>25.16742864170613</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>17.60045620910773</v>
+        <v>12.31243137606287</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>32.49817170478105</v>
+        <v>19.60049651482144</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>37.47229155340619</v>
+        <v>29.84014928594391</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.35550367182432</v>
+        <v>-1.947054316401452</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.89224630494861</v>
+        <v>9.397301671854034</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>36.8224577263504</v>
+        <v>15.58027614661536</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.28653842803178</v>
+        <v>-3.267272989721835</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.0145881882985</v>
+        <v>21.40309333344072</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>48.65254830274727</v>
+        <v>36.83453717136585</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>43.82133743541748</v>
+        <v>26.2542891603496</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>51.14267975942119</v>
+        <v>40.26801810301012</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>55.93011245932775</v>
+        <v>48.11745202107397</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>23.67485683530796</v>
+        <v>0.6431958919737788</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>45.78983709242787</v>
+        <v>18.89831783171743</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>52.75901686396063</v>
+        <v>32.17311713567948</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>39.5423989185783</v>
+        <v>53.61290949542465</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>34.61828463472728</v>
+        <v>48.2426502520446</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>41.36003174225656</v>
+        <v>56.42303710642462</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>45.63271151379648</v>
+        <v>59.50733442042144</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16.7389477000848</v>
+        <v>19.50118008653901</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37.26842119042178</v>
+        <v>53.60128770547552</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>43.8296613446555</v>
+        <v>58.90527667058171</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.04787490091108</v>
+        <v>20.97136800642858</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>34.02344053742424</v>
+        <v>37.75306030461865</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>38.99682888031029</v>
+        <v>44.32255441844711</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>15.90686701681874</v>
+        <v>8.257570518878996</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.53953323331202</v>
+        <v>40.07776189919203</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.4686226121197</v>
+        <v>44.16717184355743</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>26.96461693068607</v>
+        <v>9.943993472041328</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>44.7814502126392</v>
+        <v>57.16585317916136</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50.41916586362387</v>
+        <v>67.55887396308103</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>45.48430889039769</v>
+        <v>73.26112210481766</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>52.81928258371628</v>
+        <v>80.91543185156866</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>57.61668141605062</v>
+        <v>85.50188480226032</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.2082841792886</v>
+        <v>27.83931233629168</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>47.45324586063902</v>
+        <v>69.24734984453804</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>54.41217194026795</v>
+        <v>77.67152411066611</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>39.75867893311131</v>
+        <v>57.9974793902952</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>34.81427281047583</v>
+        <v>44.61842871390044</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>41.55186908603662</v>
+        <v>50.30030368110711</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>45.83017328871703</v>
+        <v>59.16711102285323</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>16.9167389598168</v>
+        <v>11.93859655641864</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>37.462600699871</v>
+        <v>49.86474049030267</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>44.02701770345068</v>
+        <v>58.30849776393939</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>19.2322680342555</v>
+        <v>16.00645631182952</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.21385738763811</v>
+        <v>35.19907191105855</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>39.18996423380491</v>
+        <v>43.92789637767555</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>16.12689419178182</v>
+        <v>5.798331526707635</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>33.76584895892552</v>
+        <v>38.35694166105906</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>38.70028539689784</v>
+        <v>46.93794001625308</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.19454376641806</v>
+        <v>9.520146148098107</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>45.01717577555515</v>
+        <v>58.54049718503951</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>50.65756388375875</v>
+        <v>72.39372019970558</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>45.70198811445573</v>
+        <v>74.09304362666521</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>53.03225414741595</v>
+        <v>79.56120033001191</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>57.83505124621689</v>
+        <v>89.62040040802742</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.40596728243158</v>
+        <v>18.58877802772087</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>47.6676111391865</v>
+        <v>66.9726973597913</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>54.62960777045681</v>
+        <v>79.29927489236167</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>38.82994992870942</v>
+        <v>52.64855458344779</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.93367976894881</v>
+        <v>29.79603063362386</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>40.67236411300218</v>
+        <v>37.45378390173679</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.95515462634191</v>
+        <v>47.45349702033143</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16.08050335203725</v>
+        <v>7.841362710387958</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>36.5840698633012</v>
+        <v>41.39906104612579</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>43.17265673109465</v>
+        <v>53.08658967261918</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>18.40278713542618</v>
+        <v>11.86063034551011</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.36236405866733</v>
+        <v>31.7543176448563</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.35158303002347</v>
+        <v>44.94063241343002</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.23680669957524</v>
+        <v>5.895988049010011</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.8466556135804</v>
+        <v>34.07595863555873</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>37.79621589691357</v>
+        <v>47.61330396269436</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.24249752557745</v>
+        <v>5.294916374079754</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>44.04116213301076</v>
+        <v>50.02003077312312</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>49.69556449748716</v>
+        <v>69.6698153207189</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>44.78871755250395</v>
+        <v>57.57121868316883</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>52.1218703078055</v>
+        <v>67.43420156179926</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>56.93031448742428</v>
+        <v>83.47354426560915</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>24.536018524134</v>
+        <v>8.926877328121222</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>46.75746771986066</v>
+        <v>54.03473850169968</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>53.74413488290012</v>
+        <v>73.61255821221098</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6.919774997777896</v>
+        <v>12.68218016125497</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>20.25110785054106</v>
+        <v>18.69099092014012</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.59915535515827</v>
+        <v>28.57175345583813</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.378676681900046</v>
+        <v>2.788054917391793</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>20.01120388214852</v>
+        <v>22.02267850117065</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.27603439883681</v>
+        <v>25.18230001712434</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12.84513009436822</v>
+        <v>10.20342027639901</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.92475975598609</v>
+        <v>38.25581903404419</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>33.86649240870704</v>
+        <v>42.00456520223285</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.5990852936053</v>
+        <v>28.84293425849105</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.90740199596151</v>
+        <v>34.60449553669423</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>39.59502157902085</v>
+        <v>36.24531942795441</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>11.9243445610396</v>
+        <v>14.94463747878896</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31.00725357090648</v>
+        <v>21.83240299736848</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>37.733808500145</v>
+        <v>35.17052575579149</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>8.086525701078308</v>
+        <v>11.89539983131869</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.51948296057142</v>
+        <v>23.5451749213821</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.78704851562533</v>
+        <v>29.0510959443103</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4.90113721399609</v>
+        <v>-1.24242128291753</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.41915337398203</v>
+        <v>12.29342322035133</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.62955924361071</v>
+        <v>16.21113529228941</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.41310441799103</v>
+        <v>0.546413548153307</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.53766646239452</v>
+        <v>26.38200176601462</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>8.248979509602513</v>
+        <v>12.92277750627139</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.65475884169962</v>
+        <v>25.35852269038857</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.0010147408824</v>
+        <v>31.56604860179423</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>5.807899561812718</v>
+        <v>3.603638942546116</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.53250237243292</v>
+        <v>35.20874256520764</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.79522663727504</v>
+        <v>35.75088314019878</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14.38734640041901</v>
+        <v>10.38114903444111</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>30.55150405982262</v>
+        <v>50.97523536737999</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.49207910040304</v>
+        <v>51.82436905503182</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.12703112367374</v>
+        <v>51.73864852336236</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.45004057236203</v>
+        <v>55.65003603463479</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>41.14647230103377</v>
+        <v>57.51122036589091</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>13.32844677334889</v>
+        <v>21.49828516371864</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.53713645448435</v>
+        <v>45.0538194201182</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.25175919460897</v>
+        <v>51.62428863704929</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>9.41241574092507</v>
+        <v>15.18993295652272</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>22.9200819744061</v>
+        <v>33.63785238136425</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>27.18684319642475</v>
+        <v>37.51300676106198</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>6.325219367980829</v>
+        <v>2.824109453265219</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>21.93569266893574</v>
+        <v>31.61831463131486</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.14468739079353</v>
+        <v>34.96351823899325</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>14.9495301684077</v>
+        <v>6.466193698411832</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.15875272981463</v>
+        <v>48.58397142214939</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.411321644700948</v>
+        <v>6.507174124899993</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.82340365688808</v>
+        <v>20.40695168337675</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.17194760175391</v>
+        <v>28.20570815502605</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>6.004537176836248</v>
+        <v>1.374275330103377</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.73577145105082</v>
+        <v>31.7294750736195</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.00343181817897</v>
+        <v>35.37150990175671</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>14.59245991012116</v>
+        <v>8.265532273519501</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>30.76260169710317</v>
+        <v>48.8914447238935</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>35.70546530493291</v>
+        <v>52.51883107377895</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>31.32250944689216</v>
+        <v>52.25702069746472</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>37.64195529717976</v>
+        <v>54.49846234997592</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>41.34374899173579</v>
+        <v>60.23691196871476</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.50391337795033</v>
+        <v>12.46504318658569</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.73015672648454</v>
+        <v>38.15968624000279</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>39.44656959547244</v>
+        <v>46.77116949059437</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>9.57399682567695</v>
+        <v>9.370692149394433</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>23.08750609801021</v>
+        <v>28.19106530051257</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>27.35707979421749</v>
+        <v>34.67122478092367</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>6.519559859020646</v>
+        <v>0.2069919670312643</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.1363249640422</v>
+        <v>27.12725658386605</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>26.35078491205928</v>
+        <v>34.9236241785254</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>15.15238065983787</v>
+        <v>4.996801647121526</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>31.36709533846946</v>
+        <v>45.9937363179049</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>7.62780703535832</v>
+        <v>3.935095453173901</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.0173346781594</v>
+        <v>16.23113395162002</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.37816736812753</v>
+        <v>27.92918831041036</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>5.163489343605377</v>
+        <v>2.585577259002772</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20.86467345489145</v>
+        <v>29.07482483723201</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.1464732327976</v>
+        <v>36.98536087140218</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>13.69331571018085</v>
+        <v>6.641092980452736</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.83932752253889</v>
+        <v>44.47380125785986</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.79520020341631</v>
+        <v>52.25936730873925</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>30.46002279276571</v>
+        <v>45.02020489715848</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>36.78014544799985</v>
+        <v>48.47042933879743</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>40.48585421898063</v>
+        <v>54.86198601363775</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>12.68573554009804</v>
+        <v>10.53564703651073</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.86936084126816</v>
+        <v>31.10085218705468</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>38.61034877284027</v>
+        <v>47.30988453815178</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>8.792733238282008</v>
+        <v>5.745413197416617</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.28350572699506</v>
+        <v>23.9089948785219</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>26.56461596665915</v>
+        <v>32.49401066607319</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>5.67984045159319</v>
+        <v>-0.7561328105894667</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.26598187602906</v>
+        <v>22.04586423913374</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.4939776894707</v>
+        <v>31.76977112821315</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>14.25501743273216</v>
+        <v>1.211732564801782</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.44540035047524</v>
+        <v>37.68419836333528</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>34.44537803603613</v>
+        <v>33.12983190966695</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.74510911283549</v>
+        <v>23.91430636184518</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>36.14235567698802</v>
+        <v>35.23352379862716</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>40.04053691212289</v>
+        <v>35.67519307299673</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>12.57197177821522</v>
+        <v>6.929693448735062</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>32.10058811882379</v>
+        <v>22.19147679286973</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>38.43419163788736</v>
+        <v>29.48690312172083</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>15.6161507808233</v>
+        <v>12.25432620063767</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.9851127171925</v>
+        <v>23.66626894588991</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.7791750752549</v>
+        <v>35.10059558016465</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>12.85934557651198</v>
+        <v>-5.266987587615432</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.72662555411524</v>
+        <v>12.12192410196718</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>34.46299107330266</v>
+        <v>18.0953501486514</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>23.01389626969455</v>
+        <v>-1.680794536051614</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>40.1671075176131</v>
+        <v>30.77362088853411</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>45.59314008878255</v>
+        <v>44.64092914381235</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>40.78599338548634</v>
+        <v>30.80560854713622</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>47.78011185019479</v>
+        <v>45.45867874923289</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>52.14602459703797</v>
+        <v>52.54781782577524</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.23581580630227</v>
+        <v>4.923725579761182</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.55162915569682</v>
+        <v>28.83498379378197</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>49.2709660161022</v>
+        <v>40.89349404384953</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.06670824677868</v>
+        <v>55.44752991618499</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>31.26445129004561</v>
+        <v>50.66961615260304</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>37.67575171996656</v>
+        <v>57.98368989089731</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>41.58364259007689</v>
+        <v>58.84756126938265</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>13.97054691303888</v>
+        <v>18.5114934228849</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>33.62563626198995</v>
+        <v>53.54871689048774</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>39.94873355735898</v>
+        <v>57.71486304941422</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>17.02852242636948</v>
+        <v>19.27777504048514</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>31.4742734077773</v>
+        <v>39.72196143892039</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>36.26753481312358</v>
+        <v>47.46940003079247</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.37568571836862</v>
+        <v>4.142827710962134</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.3381526791871</v>
+        <v>41.59618836439002</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>36.0732593314176</v>
+        <v>44.42557791688138</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>24.65205000819577</v>
+        <v>9.6131627489255</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>41.89271140879735</v>
+        <v>63.2205640604784</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>47.31815314996312</v>
+        <v>71.52905141954423</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>42.40707750670233</v>
+        <v>73.01769158923803</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>49.4139248942213</v>
+        <v>80.67360258918316</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>53.78960997779739</v>
+        <v>85.52956787686701</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>22.72910860676826</v>
+        <v>27.66870854956471</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>44.17311981342007</v>
+        <v>74.21526688662881</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>50.88247719363545</v>
+        <v>79.55369501401815</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>36.27794446176422</v>
+        <v>57.44977570191276</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>31.45601882710219</v>
+        <v>45.91542006433978</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>37.86348187119749</v>
+        <v>50.45792011520142</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>41.77663756579792</v>
+        <v>57.05169608309683</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.14406931808952</v>
+        <v>10.02194773055495</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>33.81587221116005</v>
+        <v>48.16434036328948</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>40.14137534884264</v>
+        <v>55.12591093015888</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.20870245934024</v>
+        <v>13.17377899459247</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.66070396605114</v>
+        <v>35.50872920271159</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.45633708716643</v>
+        <v>45.54435051158568</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.59077673892452</v>
+        <v>0.5037092455450356</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.55986482928151</v>
+        <v>38.06184809813856</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>36.29995802477384</v>
+        <v>44.9655860280418</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>24.87674720959077</v>
+        <v>7.63058283346906</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>42.12342216328867</v>
+        <v>62.22177360439908</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>47.55112929957737</v>
+        <v>73.96540786411317</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>42.6200636652143</v>
+        <v>72.33217642839936</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>49.6225244915119</v>
+        <v>77.88613590898788</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>54.00321946517759</v>
+        <v>88.26970882267612</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.92236121546349</v>
+        <v>17.63191637787834</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>44.38329041366062</v>
+        <v>70.66212861695961</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>51.09485446378698</v>
+        <v>79.09915825415187</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>35.36830369198011</v>
+        <v>50.84304982362191</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.59537492797753</v>
+        <v>30.52575524514188</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>37.00393661265685</v>
+        <v>37.91928058288078</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.92064470179416</v>
+        <v>44.68307453943247</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>13.32787045264524</v>
+        <v>6.161591911398784</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>32.95705894865779</v>
+        <v>39.47396293738587</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>39.30557694161948</v>
+        <v>49.46767312295586</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>16.39800258136768</v>
+        <v>10.8575915255456</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.82781737515644</v>
+        <v>33.88778989090746</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>35.63601304951746</v>
+        <v>47.81186761467468</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13.71983440146654</v>
+        <v>1.517596709668727</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.65921722487924</v>
+        <v>34.59410944285627</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>35.41385114663581</v>
+        <v>46.07362610460729</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>23.94574864490276</v>
+        <v>5.262508773467435</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>41.16835216941753</v>
+        <v>55.72470575683801</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>46.60966008009709</v>
+        <v>72.90098390610014</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>41.72792661274132</v>
+        <v>58.99931511137218</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>48.73339129744847</v>
+        <v>69.6053794609074</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>53.11889225790828</v>
+        <v>84.33474636671005</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.07356910672767</v>
+        <v>11.33832360785093</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>43.4943428755987</v>
+        <v>60.93100828588638</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>50.22936538361686</v>
+        <v>77.12026044673421</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>2.87220469626655</v>
+        <v>7.261942245168118</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.38313417089141</v>
+        <v>10.37062755684137</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.7054482225275</v>
+        <v>19.42132618956748</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.2425688863720907</v>
+        <v>-2.174328960733064</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>16.0718196294068</v>
+        <v>11.84615577437442</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>20.30673716630277</v>
+        <v>14.71031590236792</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.586115470077029</v>
+        <v>3.491574277750143</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>24.86822981012181</v>
+        <v>26.54226319367432</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.78179318828753</v>
+        <v>29.5491593581083</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.02941713175068</v>
+        <v>17.57101258621359</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>32.4443287019804</v>
+        <v>23.09534064522272</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.08792901486924</v>
+        <v>25.02242387503166</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>8.1595239885106</v>
+        <v>7.716238262136915</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.53295573125975</v>
+        <v>11.95740622898544</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>34.1997903811934</v>
+        <v>22.3751339113412</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>4.798365792079839</v>
+        <v>13.14606608183522</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>18.42296909416421</v>
+        <v>25.45189754778116</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>22.6646360883182</v>
+        <v>30.56673978078662</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1.518796184000422</v>
+        <v>-1.000799101354577</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>17.25365077282248</v>
+        <v>12.90776812535412</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.43530146866369</v>
+        <v>16.75903646634899</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>9.979814574559583</v>
+        <v>1.485630408802496</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.32053640020628</v>
+        <v>28.62728707146969</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>4.205225987097666</v>
+        <v>7.295468852409172</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>17.79137664198041</v>
+        <v>17.06848899572077</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.11181711023738</v>
+        <v>22.45575156865113</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>1.675955705407407</v>
+        <v>-1.314347989539886</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>17.59831608948332</v>
+        <v>25.55702663894538</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>21.83095638656829</v>
+        <v>25.74201224472327</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>10.13317096813546</v>
+        <v>3.51977346134143</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>26.50064602673986</v>
+        <v>39.57167221556673</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>31.41295387560655</v>
+        <v>39.58691293859085</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>27.56272319777759</v>
+        <v>40.25330724748904</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>33.99223769708215</v>
+        <v>43.9044301558686</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>37.64470269636548</v>
+        <v>46.12695109642495</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>9.567632415616824</v>
+        <v>13.71103047266422</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.06823567100518</v>
+        <v>34.74712120321402</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>35.72309238653894</v>
+        <v>38.76850758572673</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>6.129220362215687</v>
+        <v>16.12294982240167</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>19.82934915268535</v>
+        <v>35.54613438313622</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>24.07011739382472</v>
+        <v>38.96725761945299</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>2.948167764993638</v>
+        <v>2.878222188597626</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>18.77657325355892</v>
+        <v>32.66877356928418</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>22.95663123057479</v>
+        <v>35.83055542475383</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>11.5223145516923</v>
+        <v>7.072274997877582</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>27.94857312087179</v>
+        <v>51.05364036495473</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>4.37263410717571</v>
+        <v>1.80583116125128</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>17.96504418528681</v>
+        <v>13.00335640547287</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.28778613258651</v>
+        <v>20.01442366664622</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1.877687703021731</v>
+        <v>-2.611043208081643</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.80667356231462</v>
+        <v>23.06384291806791</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>22.04422596764781</v>
+        <v>26.32305170621687</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>10.34382670873583</v>
+        <v>2.428775606567573</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.71723496190855</v>
+        <v>38.53364223290653</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.63184124440637</v>
+        <v>41.32584732930307</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.76307155842869</v>
+        <v>41.77728698228727</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>34.18885289539121</v>
+        <v>43.78297255677246</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>37.84678668212277</v>
+        <v>49.84372835010589</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>9.74787002190072</v>
+        <v>5.7531007829507</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.26599946306544</v>
+        <v>28.85488167028884</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.92271242769922</v>
+        <v>35.04770681123752</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>6.295379267989102</v>
+        <v>11.41133003273259</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>20.00131486389409</v>
+        <v>31.23783274790771</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>24.24490476518451</v>
+        <v>37.19526405324696</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>3.147108420122496</v>
+        <v>1.442710349753451</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>18.98180187379844</v>
+        <v>29.49274414693144</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>23.16729337740389</v>
+        <v>36.95975431337153</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>11.73016874678078</v>
+        <v>6.873587811149903</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.16187788556265</v>
+        <v>49.83642012817121</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>3.580663670195118</v>
+        <v>-0.5665477127659386</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>17.15032150349951</v>
+        <v>8.892899874313013</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.48540316603523</v>
+        <v>19.86834221828768</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>1.027852688376857</v>
+        <v>-1.394425400414125</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.92644002812368</v>
+        <v>20.15255424605906</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>21.17826332468857</v>
+        <v>27.87006238645524</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.435361207551161</v>
+        <v>0.8648786101113579</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.78445105348982</v>
+        <v>33.9148700245577</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.71211761547322</v>
+        <v>41.04211522717218</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.89198045708569</v>
+        <v>34.76339682482092</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.31860529121461</v>
+        <v>38.03864961442891</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.98040922552226</v>
+        <v>44.85123301318771</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>8.92160307822596</v>
+        <v>4.413491290824627</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.39670188052914</v>
+        <v>22.26310636577836</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.07798545307531</v>
+        <v>35.82837323635066</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>5.506072300352663</v>
+        <v>7.844693143128055</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>19.18906566384947</v>
+        <v>26.93298938583292</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>23.4442452003054</v>
+        <v>34.96362532375956</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>2.299019564906395</v>
+        <v>0.4804261805525023</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.1027373857622</v>
+        <v>24.18769447893734</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>22.30189514753325</v>
+        <v>33.61652116753139</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.82394677931598</v>
+        <v>3.037199959393273</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.23112965738012</v>
+        <v>41.3014502896287</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.19990826941653</v>
+        <v>34.87322345379437</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.93962817928863</v>
+        <v>26.75534967228331</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.44548719647705</v>
+        <v>38.05515872147211</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>37.30513901341102</v>
+        <v>37.81647044778693</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.561875337149889</v>
+        <v>9.175333341340032</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.38884992101715</v>
+        <v>25.82746409289184</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.67076044296848</v>
+        <v>31.54060566290374</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>12.56506576614836</v>
+        <v>13.3100843377677</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.12916570650341</v>
+        <v>25.62388319522474</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.89870967397506</v>
+        <v>36.55418102310004</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.735273778689674</v>
+        <v>-5.889547678431985</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.82038774532006</v>
+        <v>12.87050001034553</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>31.52503186400762</v>
+        <v>17.78285483337904</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>19.82727650326883</v>
+        <v>-1.955613238425343</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>37.2019664527457</v>
+        <v>32.22175631055093</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>42.59987986382217</v>
+        <v>44.64478949844914</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>38.20615957809515</v>
+        <v>33.44142279470698</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.30905785816291</v>
+        <v>48.57396284407179</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>49.63262368361836</v>
+        <v>53.68006225686261</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>18.40865634339286</v>
+        <v>6.03821086659109</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.04298024091168</v>
+        <v>32.32931837025961</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>46.70222889523502</v>
+        <v>42.06749456007154</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>32.82808348503084</v>
+        <v>57.22452624662244</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.46553963578456</v>
+        <v>53.49584130493585</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>34.98533060992042</v>
+        <v>60.63317946404679</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.85477302086065</v>
+        <v>60.85032034913026</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>10.96563947641179</v>
+        <v>20.17743051969622</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>30.92045299951823</v>
+        <v>56.92677095720317</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>37.19178392509343</v>
+        <v>59.7755841008335</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>13.98329920158792</v>
+        <v>20.44826810654138</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.62501243896646</v>
+        <v>42.22690891123686</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>33.39366617297151</v>
+        <v>49.36781118869692</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>11.25792743673188</v>
+        <v>4.082187339961546</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.43932071213028</v>
+        <v>43.7360529020047</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.14251993610406</v>
+        <v>45.37683612246522</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>21.47252495443804</v>
+        <v>9.777547658847674</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>38.93556389100641</v>
+        <v>65.8475968959962</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>44.33277599002029</v>
+        <v>72.45808373563732</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>39.83476643837218</v>
+        <v>76.36226329156229</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>46.95029948966984</v>
+        <v>84.45014084741031</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>51.283667029653</v>
+        <v>87.34093704519299</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>19.90802802908482</v>
+        <v>28.93851227677257</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>41.67202144039742</v>
+        <v>78.45336654724396</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>48.32125587015656</v>
+        <v>81.61765741354721</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>33.04428878011981</v>
+        <v>60.48745958743443</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.66149631954313</v>
+        <v>50.06176508554454</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>35.17728085236146</v>
+        <v>54.48958878989365</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>39.05210044954528</v>
+        <v>60.29459898858032</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.14346573802854</v>
+        <v>12.96631043366829</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.11495621574203</v>
+        <v>52.87558118858732</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>37.38875350449317</v>
+        <v>58.54192167596986</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>14.16811009645006</v>
+        <v>15.50165415003654</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.81604023315916</v>
+        <v>39.22099917701178</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.58707096495652</v>
+        <v>48.5685573703486</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>11.47770707217665</v>
+        <v>1.760588159724396</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.66572656212669</v>
+        <v>41.67743583958239</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>33.37387279827454</v>
+        <v>47.25448964966667</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>21.70232062615444</v>
+        <v>9.192663670244428</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>39.17133496493387</v>
+        <v>66.38300271080827</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>44.57081424972899</v>
+        <v>76.32092257040995</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>40.05225988373226</v>
+        <v>77.16403229947889</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>47.16323917605801</v>
+        <v>83.20757284789465</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>51.50170076885436</v>
+        <v>91.5056626526132</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>20.10568651183286</v>
+        <v>20.2979120612621</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>41.88658727265826</v>
+        <v>76.47623563311232</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>48.53809199404024</v>
+        <v>82.73746192109583</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>32.12564587901865</v>
+        <v>53.66580639389699</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.79262266301291</v>
+        <v>34.67915017502784</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.30969446127526</v>
+        <v>42.16168352031943</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.18801828072198</v>
+        <v>48.20145357631651</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>10.3195665657487</v>
+        <v>9.420190325260148</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.24805330525736</v>
+        <v>44.37938386249205</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.54488581350454</v>
+        <v>52.73171748349624</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>13.34942661391749</v>
+        <v>13.12933885464429</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>27.97497322741577</v>
+        <v>37.3949822133717</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>32.75862252414522</v>
+        <v>50.64896733911014</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>10.59841656237815</v>
+        <v>2.483731721583318</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.75638932174419</v>
+        <v>37.57865376806211</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.47921216132443</v>
+        <v>47.82633725279766</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>20.76247495783341</v>
+        <v>6.505368085140905</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.20722652432071</v>
+        <v>59.28164694903593</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>43.62036361992449</v>
+        <v>74.7709472995396</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>39.15191922420939</v>
+        <v>63.6455736838179</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>46.26607376249216</v>
+        <v>74.78758886865525</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>50.60930596097119</v>
+        <v>87.53893198451634</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>19.24915983190279</v>
+        <v>14.09221574592187</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>40.98949180492277</v>
+        <v>66.54662883900984</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>47.66444817697664</v>
+        <v>80.40549618202751</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>11.12336811224072</v>
+        <v>12.4074330579298</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.43902939432736</v>
+        <v>13.44073411040588</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.71811578833975</v>
+        <v>20.99402123424262</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.073028596609415</v>
+        <v>1.572706175188266</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>23.75899254978269</v>
+        <v>15.74824396021106</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.93168316075158</v>
+        <v>18.25799326203432</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>17.12558306075371</v>
+        <v>4.266384549773189</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>33.13873623561553</v>
+        <v>24.27238003767413</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>38.03256313943317</v>
+        <v>26.52446183319601</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>33.50600243947573</v>
+        <v>11.89239249704065</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>39.87583734914887</v>
+        <v>18.26142912668029</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>43.80491289587995</v>
+        <v>18.69198305957602</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>15.98380299626855</v>
+        <v>11.12467379807774</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>34.97905057610126</v>
+        <v>10.74841864815248</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>41.63288748825873</v>
+        <v>21.29361082057345</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>12.14145566159019</v>
+        <v>11.73779160887234</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.53646044383891</v>
+        <v>16.39322151596854</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.71179278620157</v>
+        <v>21.59716522804654</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.509401545713107</v>
+        <v>3.99894147917929</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>24.05840375994931</v>
+        <v>7.39237894814848</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.15608414347273</v>
+        <v>12.10232635730037</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>17.57084287910425</v>
+        <v>-1.830307990908874</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.60641286334204</v>
+        <v>12.27639447889571</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.45588115494152</v>
+        <v>14.12432883138747</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.84448838224256</v>
+        <v>21.3324558073625</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.12157901437136</v>
+        <v>25.19510534861556</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.502550415680165</v>
+        <v>2.867945119691772</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.2784174711831</v>
+        <v>29.12112513387392</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.44881241210269</v>
+        <v>29.50867783404611</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>18.67005111611986</v>
+        <v>6.016006677952152</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.76615264391484</v>
+        <v>38.56147838933479</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>39.65884658951072</v>
+        <v>38.41113497578903</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.03687805851289</v>
+        <v>36.95815970643643</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>41.42171767339346</v>
+        <v>42.74466280427681</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>45.35954479405537</v>
+        <v>43.24224822453827</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.3931436883334</v>
+        <v>20.84376762645281</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.51153276957878</v>
+        <v>36.65904782900628</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>43.15327431496561</v>
+        <v>41.49923747693398</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.46786285637242</v>
+        <v>13.52805602859515</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.93594541681881</v>
+        <v>24.64178884303759</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.11017950934806</v>
+        <v>28.09683689487735</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>9.931056160636789</v>
+        <v>5.856794999442851</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.5701953183819</v>
+        <v>24.03892465069753</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.6662028428365</v>
+        <v>28.82854317178348</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>35.22491695008988</v>
+        <v>32.90548758766148</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>12.61744264582897</v>
+        <v>10.81709995951316</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.01202698345688</v>
+        <v>20.07620826655214</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>30.2915936767922</v>
+        <v>25.16799602352705</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>9.698181543927774</v>
+        <v>3.396871594568097</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.48026047928838</v>
+        <v>29.03911832540147</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.65573649363095</v>
+        <v>32.50938127049807</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>18.87430423001178</v>
+        <v>7.555650184417768</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.97608710144949</v>
+        <v>40.93409445179502</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>39.87129568809901</v>
+        <v>43.22627446829763</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.23139516595823</v>
+        <v>40.41787205285421</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>41.61251082586876</v>
+        <v>44.60817153316915</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>45.5558543374062</v>
+        <v>48.93964671284306</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>17.56788369960126</v>
+        <v>14.73323352689056</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>36.70321911050525</v>
+        <v>33.06053815791677</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>43.34743529098758</v>
+        <v>40.39978614288923</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>13.62860805008902</v>
+        <v>10.25464610822606</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27.10225446547147</v>
+        <v>22.25969043479425</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>31.27945502569676</v>
+        <v>27.80637832499002</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>10.12434054503115</v>
+        <v>5.263782207016668</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.76940146045803</v>
+        <v>22.2450258442525</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.87096869603938</v>
+        <v>31.39865099496704</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>19.3083057599866</v>
+        <v>3.677485842355722</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>35.43206940654348</v>
+        <v>33.8875153475555</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>11.83815776242768</v>
+        <v>5.200349547733783</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.21104430059555</v>
+        <v>13.27070967878122</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.50305665845872</v>
+        <v>22.07445194118412</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>8.862638806493255</v>
+        <v>2.540403847070326</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.61605951945931</v>
+        <v>24.78222086102878</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.80579772695592</v>
+        <v>32.31117898401471</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>17.98030896144211</v>
+        <v>2.921321072790295</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.0587994368152</v>
+        <v>34.13839763759687</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.96704271585531</v>
+        <v>39.91144221186806</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>34.3730024422167</v>
+        <v>30.34824634357645</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>40.75465658788636</v>
+        <v>34.74006739952944</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>44.70244428983231</v>
+        <v>39.8441280807459</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>16.75253334629195</v>
+        <v>9.395854560304738</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>35.84651925958483</v>
+        <v>23.0836790076938</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>42.51567725678279</v>
+        <v>37.47699136022418</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>12.85338438406549</v>
+        <v>7.103266995045551</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.30522499051024</v>
+        <v>19.09820301531101</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.49411113236746</v>
+        <v>26.93494500675659</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>9.292049361590152</v>
+        <v>5.91636733180508</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.90796621623548</v>
+        <v>19.56639454298693</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.02317518492637</v>
+        <v>30.76085151383094</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.41820894946489</v>
+        <v>1.051027326823917</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.51855441860506</v>
+        <v>27.68076212867358</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.44107477992569</v>
+        <v>20.06365986796163</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.53820973811349</v>
+        <v>10.45273082837429</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>39.97794239365712</v>
+        <v>20.85567666378843</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>44.09607028454022</v>
+        <v>24.64594390681009</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.56797702429314</v>
+        <v>3.631012516054373</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>35.96710821486563</v>
+        <v>9.921510333816187</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>42.21118781521746</v>
+        <v>16.25316312936477</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>19.54433259498768</v>
+        <v>13.246825527215</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>33.82030099655353</v>
+        <v>16.99209937165893</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>38.56872169666473</v>
+        <v>26.28707411347052</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.36259892287264</v>
+        <v>1.061235502372345</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>33.18373811181342</v>
+        <v>7.717491233592888</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.85696835881522</v>
+        <v>13.34685193114115</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>27.04005897360035</v>
+        <v>-2.311471617376686</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>44.04881598425489</v>
+        <v>16.11814746718008</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>49.44960780086047</v>
+        <v>30.73778109759862</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>44.45018706943312</v>
+        <v>20.20061021514168</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>51.48219230136399</v>
+        <v>33.1822976810595</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>56.130179626451</v>
+        <v>41.59748018194805</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.11604592067238</v>
+        <v>2.242054194771544</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>46.21474707269505</v>
+        <v>12.74547810802727</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>52.8464407897664</v>
+        <v>24.55213329668097</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.05975189876094</v>
+        <v>41.45237030186268</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>35.05759229823489</v>
+        <v>36.2555646282797</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.51149900112138</v>
+        <v>43.62986091465977</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.63909591852779</v>
+        <v>47.69926697088454</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.96909544838967</v>
+        <v>15.9951968538759</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>37.49177707117047</v>
+        <v>41.40269835855143</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>43.72512857639921</v>
+        <v>45.16656403813289</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>20.95776158911845</v>
+        <v>19.97727479881551</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.3089063725958</v>
+        <v>32.39128579439058</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>40.05650862914325</v>
+        <v>38.25092367956542</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>17.8772173798008</v>
+        <v>8.917763632409649</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.79122940402713</v>
+        <v>34.93688506140877</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.46320491359599</v>
+        <v>38.55071623489444</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.67808675735877</v>
+        <v>8.303703578322601</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>45.77259778971405</v>
+        <v>47.93074176589363</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>51.17304932117457</v>
+        <v>57.88807095194223</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>46.07193776132612</v>
+        <v>62.92040059294277</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>53.1169547085749</v>
+        <v>69.6386268281324</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>57.77490255218017</v>
+        <v>75.36495217939937</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.61245017242297</v>
+        <v>26.12241275385887</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>47.83669534111566</v>
+        <v>58.36662686361983</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>54.45824966972243</v>
+        <v>65.35328327796827</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>40.26999137143734</v>
+        <v>46.60515396497745</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>35.2481565767276</v>
+        <v>33.64219449950674</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>41.69809200716855</v>
+        <v>38.42237030127684</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>45.83107012781034</v>
+        <v>48.04628927368753</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>18.14181421170048</v>
+        <v>9.754695173280055</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>37.68067699481021</v>
+        <v>38.68179518975072</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>43.9170012563285</v>
+        <v>45.26097593650468</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>21.13691048732467</v>
+        <v>16.27132130393657</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.49402813026109</v>
+        <v>31.00697307421729</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>40.24421428374976</v>
+        <v>38.8001843228211</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>18.09100853805943</v>
+        <v>7.299631241836945</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>35.01128691084521</v>
+        <v>34.05891317990162</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.68842408361289</v>
+        <v>41.83317934730867</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.90161473364375</v>
+        <v>8.86755329157285</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>46.00188725063656</v>
+        <v>50.32384494843197</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>51.40486137528054</v>
+        <v>63.42971567288451</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>46.28368563418736</v>
+        <v>64.54218660626702</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>53.32416571666526</v>
+        <v>69.01500094170216</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>57.9872911881051</v>
+        <v>80.0118563969769</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.80460465256422</v>
+        <v>18.1626417676118</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>48.04529844105735</v>
+        <v>56.97013898486434</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.66974288184095</v>
+        <v>67.52867513140419</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>39.36854536410356</v>
+        <v>41.63121100478214</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.39365176014934</v>
+        <v>19.98362707605722</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>40.84464561963109</v>
+        <v>26.82798186294778</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>44.98179281745544</v>
+        <v>37.16008094125393</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>17.33039379840235</v>
+        <v>6.291427207893673</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.82807940682032</v>
+        <v>31.59608156698425</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.08773665814328</v>
+        <v>41.00423689271561</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>20.33164225722429</v>
+        <v>12.30921563618386</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>34.66736581985998</v>
+        <v>28.11343506628987</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.43021590814671</v>
+        <v>40.01399051231282</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>17.22667082553806</v>
+        <v>7.426395307079012</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>34.11854842012151</v>
+        <v>30.22039823426051</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>38.81030868363416</v>
+        <v>42.70759053833515</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>27.9770114339959</v>
+        <v>4.769940897849086</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>45.05398803613711</v>
+        <v>42.52766627323243</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>50.47050908062725</v>
+        <v>60.90238612132484</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>45.39678320952238</v>
+        <v>49.06208002833682</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>52.44008195415855</v>
+        <v>57.85394393470281</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>57.10850257916017</v>
+        <v>74.26388871865723</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>25.95978271319989</v>
+        <v>9.286351146753415</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>47.16134361512012</v>
+        <v>45.31288718995524</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>53.80960717936841</v>
+        <v>62.86006017738802</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.92291204052221</v>
+        <v>11.276338933994</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>26.59643075289438</v>
+        <v>13.7592719830719</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>30.93156184701488</v>
+        <v>22.46181658777965</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>10.096417260833</v>
+        <v>1.57195683152506</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.19106728476682</v>
+        <v>17.7576865351863</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>30.42346152620799</v>
+        <v>20.62156020799691</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>19.3825368521477</v>
+        <v>3.307746245579494</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.79454895706078</v>
+        <v>27.02875260675222</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>40.74344573957084</v>
+        <v>29.82750418928912</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>36.02405741318827</v>
+        <v>14.51686030683744</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>42.52100021518199</v>
+        <v>21.47848058525151</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>46.43772264850471</v>
+        <v>22.18485915907333</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>17.95714061147316</v>
+        <v>10.15530196248536</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>37.53215431077994</v>
+        <v>12.64949810191218</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>44.2721578289506</v>
+        <v>23.99468967204841</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>14.26434309174471</v>
+        <v>14.29706070029096</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.02679601860551</v>
+        <v>21.70023781717236</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.238371125099</v>
+        <v>27.29424827914415</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>10.83310733550271</v>
+        <v>5.716732641288854</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.80385841848837</v>
+        <v>13.01282298059779</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.94318369180278</v>
+        <v>17.37212266722586</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>20.1518827906725</v>
+        <v>0.485992891394126</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>36.59681117617065</v>
+        <v>20.33823523162147</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>14.26047595175147</v>
+        <v>13.30617238292376</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.00784466490501</v>
+        <v>22.35107651043909</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>32.34079724497217</v>
+        <v>27.07046434195239</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>11.53160271186578</v>
+        <v>3.240293171891185</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>27.71731884750651</v>
+        <v>31.97786595225405</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.94711021861383</v>
+        <v>32.45440886799883</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>20.93309609163509</v>
+        <v>5.421907969415404</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>37.42902296643687</v>
+        <v>42.14687723411055</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>42.37658834339339</v>
+        <v>42.19243084768326</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>37.56163039973146</v>
+        <v>40.39597323122295</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>44.0737597006091</v>
+        <v>46.55979276875654</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>47.99908031753505</v>
+        <v>47.08513572887388</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>19.37165446365928</v>
+        <v>20.12188963311763</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>39.07136486272191</v>
+        <v>39.3933942270865</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>45.79903669978604</v>
+        <v>44.67023274246473</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>15.59660223974266</v>
+        <v>17.04839484326418</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.4330712335279</v>
+        <v>31.28906309624102</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>33.64332686749557</v>
+        <v>34.77634999411325</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>12.26115581507124</v>
+        <v>8.561451506961664</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.32325659213317</v>
+        <v>31.18719956179357</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>32.46056565160668</v>
+        <v>35.26532490264955</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>38.22320254351573</v>
+        <v>42.51860664998053</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>14.42218991023282</v>
+        <v>9.915061651387552</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.17542239285343</v>
+        <v>21.15380635257315</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.51076466294536</v>
+        <v>27.09856837404987</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>11.72732422835312</v>
+        <v>3.810884255546387</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>27.91915985652641</v>
+        <v>32.0540936947225</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.15390884249069</v>
+        <v>35.63739418730539</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>21.13741232591172</v>
+        <v>6.973938454389565</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>37.63888224253704</v>
+        <v>44.66438582778618</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>42.58887334111222</v>
+        <v>47.14252284598334</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>37.75608077431419</v>
+        <v>44.05266490061627</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>44.26444960207512</v>
+        <v>48.68210147759638</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>48.19523403477337</v>
+        <v>53.04128563013133</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>19.54635262653626</v>
+        <v>13.9957095396723</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>39.26289413328583</v>
+        <v>35.92429932166426</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>45.99294399293155</v>
+        <v>43.72226895511623</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.75746209017392</v>
+        <v>13.78681883962377</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.59939311359904</v>
+        <v>29.07812526558468</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.8125275280712</v>
+        <v>34.63722488055436</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.45449738884022</v>
+        <v>8.11550657602265</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.52244103840293</v>
+        <v>29.70409300357108</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>32.6651810471059</v>
+        <v>38.15113577944924</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>21.89625398007881</v>
+        <v>7.0942880908562</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>38.43025746200242</v>
+        <v>43.77466810129118</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>13.64305601307951</v>
+        <v>4.832064600616068</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>27.37460660576457</v>
+        <v>14.61104958562314</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.72259803840698</v>
+        <v>24.4672548924443</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>10.89187218060265</v>
+        <v>3.557207241336258</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.05498243760464</v>
+        <v>28.01728742275512</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.30428977515312</v>
+        <v>35.91875620119531</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>20.24365844522546</v>
+        <v>3.003819634790048</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.72188416441251</v>
+        <v>38.19500760395663</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>41.68511987363735</v>
+        <v>44.395130706789</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.89793848370784</v>
+        <v>34.27105821527964</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>43.40694790820232</v>
+        <v>39.33967414445526</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.34225520243406</v>
+        <v>44.74287408439319</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>18.73134878151166</v>
+        <v>9.390087573536874</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>38.40648786025393</v>
+        <v>26.34872745857229</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>45.16178902723005</v>
+        <v>41.46424890476964</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>14.98239541722566</v>
+        <v>10.31145435559767</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.80253528972088</v>
+        <v>25.40154018658196</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.02754891329632</v>
+        <v>33.44809326064097</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>11.62230624301352</v>
+        <v>8.4117620015118</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.66103552630766</v>
+        <v>26.3437702030357</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>31.81770133252456</v>
+        <v>37.08135936316059</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>21.00641009882965</v>
+        <v>4.107597690207307</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.51703975335386</v>
+        <v>36.89671423519141</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>41.46496685274955</v>
+        <v>27.98680141388227</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.34560682459916</v>
+        <v>18.49401217610386</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>42.91252647659937</v>
+        <v>30.00465963363758</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>47.00764437978211</v>
+        <v>33.49137874988426</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>18.83603690358952</v>
+        <v>7.264087026009676</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>38.81377874977915</v>
+        <v>17.91504907564023</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>45.12132730779351</v>
+        <v>24.37679024425504</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>21.04233759397523</v>
+        <v>12.82816380301245</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>35.66457183413137</v>
+        <v>19.19261258201387</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>40.459445129617</v>
+        <v>29.88017029494381</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>18.06257474283996</v>
+        <v>1.623818164029199</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.28911830382626</v>
+        <v>12.05457605762261</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>40.00932677117077</v>
+        <v>18.047923503326</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.94441763212293</v>
+        <v>-2.479592515149523</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>46.33597475173156</v>
+        <v>21.08835515112428</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>51.78385069708704</v>
+        <v>36.81132018133398</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>46.60609802259933</v>
+        <v>25.66476940497131</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>53.77389789759666</v>
+        <v>40.77668127055298</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>58.40872209300336</v>
+        <v>49.47024992261112</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.75219630557133</v>
+        <v>2.182653494108056</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>48.42196440666483</v>
+        <v>18.80638411508911</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>55.12028890769312</v>
+        <v>31.02773548558465</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>43.0912895976705</v>
+        <v>50.46674336126578</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>37.87240863983251</v>
+        <v>45.97722617626168</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>44.45368940449367</v>
+        <v>54.11256259167153</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>48.55810373564419</v>
+        <v>57.58689701854702</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.24305489914805</v>
+        <v>20.60566542184696</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>40.34590130002746</v>
+        <v>50.98255331702078</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>46.64244894916958</v>
+        <v>54.5421101108485</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.45919912045517</v>
+        <v>19.90771685364504</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>37.15752390607935</v>
+        <v>35.44876626506692</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>41.95139153874407</v>
+        <v>42.37111359033605</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>19.58121415039075</v>
+        <v>10.00770358758651</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.9018029609385</v>
+        <v>40.42597856736909</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.62044376511781</v>
+        <v>44.13015686496568</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>30.58671437412853</v>
+        <v>8.476446066024948</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>48.06500580826468</v>
+        <v>53.93343396255091</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>53.51234056048275</v>
+        <v>64.56321808907973</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>48.23280566153553</v>
+        <v>69.36323595960086</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>55.41380667725124</v>
+        <v>77.87964496327382</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>60.05845762574423</v>
+        <v>83.59580345665881</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.25209483662675</v>
+        <v>26.25945463380032</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>50.04900006238993</v>
+        <v>65.53204744216204</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>56.73693392774747</v>
+        <v>72.62610149432653</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>43.30134087145267</v>
+        <v>55.86163279233108</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>38.06288307168438</v>
+        <v>43.60603762352194</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>44.6401571316178</v>
+        <v>49.19427157182368</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>48.74990055404387</v>
+        <v>58.24524127663882</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>20.41570221314399</v>
+        <v>14.42266109824201</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>40.53462872265362</v>
+        <v>48.51079893687034</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.63856434155566</v>
+        <v>16.2035263188082</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>37.34275630428251</v>
+        <v>34.19441908835709</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>42.13913237538379</v>
+        <v>43.03119949975402</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>19.79514514591816</v>
+        <v>8.555733029969794</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.12190772688049</v>
+        <v>39.81971555479046</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.84560047849634</v>
+        <v>47.74076877900931</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>30.8103522622873</v>
+        <v>9.162200533979075</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>48.29428033378496</v>
+        <v>56.56420845291633</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>53.74405839872463</v>
+        <v>70.31502857347563</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>48.44453625693165</v>
+        <v>71.24006309509568</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>55.62095242579928</v>
+        <v>77.54201993862306</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>60.27073742602297</v>
+        <v>88.50202420519676</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.4442703555035</v>
+        <v>18.39548216000306</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>50.25751389147275</v>
+        <v>64.38978986082036</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>56.9482502957834</v>
+        <v>75.1177980885974</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>42.40039314216085</v>
+        <v>50.47781698224097</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>37.20861917080151</v>
+        <v>29.08776638264237</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>43.78704923617802</v>
+        <v>37.09448856517405</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>47.90104071987216</v>
+        <v>47.11982770261085</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>19.60463262468178</v>
+        <v>10.67035461376138</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>39.68233954076086</v>
+        <v>40.90762550383927</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>46.00538686512584</v>
+        <v>50.33239814853837</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.83400425258353</v>
+        <v>12.65881771634059</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.51678995797428</v>
+        <v>31.36400742736405</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>41.32602627313156</v>
+        <v>44.52782339995608</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>18.93144046977719</v>
+        <v>8.908892885788713</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.22972114858189</v>
+        <v>35.74207612178843</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>40.96832363942714</v>
+        <v>48.6509948335336</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.88659431263075</v>
+        <v>5.479126399255868</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>47.34723591380829</v>
+        <v>48.68447063454326</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>52.81076501330941</v>
+        <v>67.99975167005204</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>47.55841522649271</v>
+        <v>55.64095041436232</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>54.73776028435024</v>
+        <v>66.55939425670695</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>59.3929034038461</v>
+        <v>83.25836894580493</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>27.60034060319555</v>
+        <v>10.0259718068812</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.37435340997819</v>
+        <v>52.71266351114443</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>56.08919481827881</v>
+        <v>70.64340660841692</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>42.86235900614884</v>
+        <v>9.615116510305981</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>54.66005895696778</v>
+        <v>10.51282622600274</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>58.27447544190607</v>
+        <v>19.01781017671365</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>41.43374595827167</v>
+        <v>3.480713454187672</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>55.33939423875318</v>
+        <v>16.55442841377155</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>58.83771570650688</v>
+        <v>18.59894117982034</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>51.32554682956383</v>
+        <v>6.341983207240798</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>65.49261347535506</v>
+        <v>25.96750902862552</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>69.61417352858589</v>
+        <v>27.97620552038582</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>61.9325147427026</v>
+        <v>15.80029290272306</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>67.47530889847985</v>
+        <v>20.85782841441949</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>70.60170666830791</v>
+        <v>22.44115796091689</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>45.40878165300362</v>
+        <v>12.19006839243749</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>62.16972050313515</v>
+        <v>12.36357870782572</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>67.89118270551268</v>
+        <v>22.18936160508875</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>43.553189055101</v>
+        <v>16.66605908982318</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>55.43729582210603</v>
+        <v>25.29873213295389</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>58.94435379935569</v>
+        <v>29.48212917399934</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>41.54151105333702</v>
+        <v>5.644062768910221</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>55.35366058459696</v>
+        <v>16.78131066777445</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>58.76917231547339</v>
+        <v>19.07800523194896</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>51.46444356217827</v>
+        <v>6.194569036665502</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>65.6703807571331</v>
+        <v>28.21600610721111</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>44.06484672534977</v>
+        <v>9.333712421145972</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>55.92665651366301</v>
+        <v>15.66964105515066</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>59.5390373159527</v>
+        <v>20.75783613958372</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>42.72268379985122</v>
+        <v>2.869231021589673</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>56.70771027776929</v>
+        <v>26.7570796699371</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>60.20360459975486</v>
+        <v>26.43908421181663</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>52.71595518009023</v>
+        <v>5.443689509183159</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>66.95580151172925</v>
+        <v>35.96805425710247</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>71.07588886397758</v>
+        <v>35.30515280030398</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>63.30532596635808</v>
+        <v>34.64450300371355</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>68.86067564175744</v>
+        <v>38.24929776342925</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>71.99433378314674</v>
+        <v>39.86716471666595</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>46.6730130020123</v>
+        <v>17.15523840407268</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>63.54217390926373</v>
+        <v>31.43266537071865</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>69.25318542798016</v>
+        <v>35.4339048240661</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>44.75132577277152</v>
+        <v>18.8039256282798</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>56.69975108635924</v>
+        <v>33.17163223459436</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>60.20549828823926</v>
+        <v>35.60289955895212</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>42.82437697546487</v>
+        <v>7.775365028373738</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>56.71622883772661</v>
+        <v>32.3186284493033</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>60.12978443612703</v>
+        <v>33.94660820431996</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>52.84806638427157</v>
+        <v>10.03255711449442</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>67.12688734237423</v>
+        <v>46.3308773156367</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>44.18669495613523</v>
+        <v>4.779147012663245</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>56.05369061942239</v>
+        <v>12.6375565984259</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>59.66798082736616</v>
+        <v>18.97326232700006</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>42.87339204001288</v>
+        <v>1.829505590690179</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>56.86387582768072</v>
+        <v>24.89537231166407</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>60.36389955121322</v>
+        <v>27.22032406244547</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>52.8730327286227</v>
+        <v>4.72290736203864</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>67.11778497533447</v>
+        <v>35.59221693095235</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>71.23977514659461</v>
+        <v>37.19970803090868</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>63.45587526484065</v>
+        <v>36.27559301827013</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>69.00805843455171</v>
+        <v>38.48536800720716</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>72.14625960353189</v>
+        <v>43.39605076476487</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>46.80667083884767</v>
+        <v>10.07007301636749</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>63.69069280175193</v>
+        <v>26.45098154059247</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>69.40341064312818</v>
+        <v>32.46974600268452</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>44.87274101069878</v>
+        <v>14.93039923115631</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>56.82599914046543</v>
+        <v>29.90204328892075</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>60.33408234490933</v>
+        <v>34.34389173275028</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>42.97334925171952</v>
+        <v>6.657060197134705</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>56.87041027725181</v>
+        <v>29.92082735943406</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>60.28851070386133</v>
+        <v>35.2439039373108</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>53.00342787277091</v>
+        <v>10.05601706617445</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>67.28678022296566</v>
+        <v>45.80199139359991</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>43.53989579382598</v>
+        <v>1.916559828367543</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>55.38797818204085</v>
+        <v>8.582178392921623</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>59.01295145233362</v>
+        <v>18.38647332756076</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>42.17803113736939</v>
+        <v>2.934295627820195</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>56.14328676881899</v>
+        <v>22.65520121530792</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>59.65560629728208</v>
+        <v>28.8229583903435</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>52.12935360177254</v>
+        <v>2.938109201853973</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>66.35387022652557</v>
+        <v>31.60598203757677</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>70.48712814344844</v>
+        <v>36.80376991286496</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>62.74089394547503</v>
+        <v>30.14664785665263</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>68.29386077705701</v>
+        <v>33.23702312735449</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>71.43557039218709</v>
+        <v>38.86688277584955</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>46.1288775499427</v>
+        <v>8.103873974848373</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>62.97664515984285</v>
+        <v>20.41609875755483</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>68.71066820242308</v>
+        <v>32.99465021096334</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>44.22837904294983</v>
+        <v>11.75641225297508</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>56.16259571393358</v>
+        <v>26.5998141160452</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>59.68071357343454</v>
+        <v>32.93591587759701</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>42.27969453952953</v>
+        <v>6.392818100165407</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>56.15106756110965</v>
+        <v>26.32976984929289</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>59.58094204748607</v>
+        <v>33.42705718502692</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>52.26193060917463</v>
+        <v>7.06326120320167</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>66.52490140746983</v>
+        <v>39.35097370436105</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>69.72120511606778</v>
+        <v>32.67959602831986</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>61.74607787763684</v>
+        <v>25.44101300527334</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>67.35752599978704</v>
+        <v>35.51051528188437</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>70.64109132520409</v>
+        <v>36.26333621733563</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>45.71724946184676</v>
+        <v>14.33735625992712</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>62.83729298832903</v>
+        <v>25.50657977370657</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>68.17603704677617</v>
+        <v>29.18630397094281</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>48.67225616869495</v>
+        <v>16.08560557812167</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>61.30664163352237</v>
+        <v>24.44776900202551</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>65.29214710800585</v>
+        <v>34.58173158536927</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>47.00361769532703</v>
+        <v>1.802798643144651</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>61.91162223053318</v>
+        <v>17.03864896892923</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>65.7962597062843</v>
+        <v>21.46562929932032</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>58.19923801405336</v>
+        <v>3.388465487254972</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>73.22982239665379</v>
+        <v>30.98474058344507</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>77.75653605585475</v>
+        <v>42.42790949149231</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>69.78793839022595</v>
+        <v>31.74437975751083</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>75.92725178091101</v>
+        <v>45.85357292423453</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>79.6356988571282</v>
+        <v>50.96855942738323</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>51.75492221849715</v>
+        <v>10.71427707881321</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>70.36539332087185</v>
+        <v>30.45542130274343</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>76.02539830454344</v>
+        <v>38.33110522250445</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>71.17731155896155</v>
+        <v>50.67548232811959</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>63.10988813819842</v>
+        <v>47.72355131430977</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>68.73327194254443</v>
+        <v>54.1829555004947</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>72.02478243027988</v>
+        <v>55.11968120523986</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>46.97532547854488</v>
+        <v>23.78966911511067</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>64.20399459345242</v>
+        <v>51.73047017734186</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>69.53337580401154</v>
+        <v>52.53538717633529</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>49.9423459984391</v>
+        <v>21.77767681346668</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>48.36367519542102</v>
+        <v>9.142353961082311</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>63.35370933652386</v>
+        <v>42.10438337484819</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>67.23672771511642</v>
+        <v>43.81999589430016</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>59.66786752053824</v>
+        <v>12.37052746157609</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>74.77373639073835</v>
+        <v>58.65747159289621</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>79.29954988102435</v>
+        <v>65.15042781828677</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>71.23683255715969</v>
+        <v>68.08491435617003</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>77.38698023086909</v>
+        <v>76.00018237817505</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>81.10360073390683</v>
+        <v>78.90765520573571</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>53.09206121180917</v>
+        <v>30.18394811069079</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>71.81292303395435</v>
+        <v>69.50846286079205</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>77.46417042643731</v>
+        <v>71.76072391891135</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>71.33960264193772</v>
+        <v>53.86274699375767</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>63.25732551372641</v>
+        <v>44.94475708520963</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>68.87732234902734</v>
+        <v>49.0980287725486</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>72.17328657012357</v>
+        <v>54.74477845587867</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>47.10753816820628</v>
+        <v>17.35736978712822</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>64.35039071687473</v>
+        <v>48.366493805676</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>69.68194844691351</v>
+        <v>51.62888275327553</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>50.08033798992859</v>
+        <v>17.9089766452777</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>62.78601709517438</v>
+        <v>36.01741453288225</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>66.77240694106104</v>
+        <v>44.499095861434</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>48.53110826936295</v>
+        <v>7.568042856287672</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>63.52664775572557</v>
+        <v>40.98991360637831</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>67.41386312851103</v>
+        <v>46.10837237636666</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>59.84267655887064</v>
+        <v>12.32664322189824</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>74.95353540232577</v>
+        <v>59.89359710543009</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>79.48125105351656</v>
+        <v>69.10640957468929</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>71.40328784151626</v>
+        <v>69.38222557129961</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>77.54952976920225</v>
+        <v>75.46247326795159</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>81.27040027327226</v>
+        <v>82.87823291292466</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>53.24181682433231</v>
+        <v>22.79295096761334</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>71.97709195409939</v>
+        <v>68.13118358078441</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>77.63042270160963</v>
+        <v>73.18776348166128</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>70.58816922398728</v>
+        <v>48.748369705285</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>62.54452293750119</v>
+        <v>32.38101655479291</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>68.16570206732177</v>
+        <v>39.09162441488415</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>71.46489290570247</v>
+        <v>45.03290550975422</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>46.43201797941214</v>
+        <v>14.21611515110814</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>63.6387389454249</v>
+        <v>41.79539266243959</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>68.99023980062563</v>
+        <v>47.54767017055324</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>49.41015701364994</v>
+        <v>15.93408369048291</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>62.09716313804187</v>
+        <v>34.90005860382114</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>66.09441654775841</v>
+        <v>46.86389648523681</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>47.80986150139668</v>
+        <v>8.808443388860148</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>62.78039023023405</v>
+        <v>38.36320747637127</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>66.68017927487955</v>
+        <v>47.62418021085431</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>59.07150307314857</v>
+        <v>10.40912749628904</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>74.16208676357283</v>
+        <v>54.60075018559493</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>78.70151471877986</v>
+        <v>68.54341078046497</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>70.66268649297683</v>
+        <v>58.26129575397074</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>76.81172287964768</v>
+        <v>68.67932863309379</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>80.53680932908432</v>
+        <v>80.1891817364705</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>52.53759923035681</v>
+        <v>17.30062715189301</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>71.23855682480101</v>
+        <v>60.03906075945044</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>76.91213921365954</v>
+        <v>71.65230964864817</v>
       </c>
     </row>
   </sheetData>
